--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -566,6 +566,19 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Year of release:        1970
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Breeder / Maintainer:    DZARC/EIAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
